--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42987,6 +42987,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>99400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43022,6 +43022,41 @@
         <v>99400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>9083300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43057,6 +43057,41 @@
         <v>9083300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>4962500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43092,6 +43092,41 @@
         <v>4962500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>891800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43127,6 +43127,41 @@
         <v>891800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2795500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43162,6 +43162,41 @@
         <v>2795500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>690200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43197,6 +43197,41 @@
         <v>690200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>993000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43232,6 +43232,41 @@
         <v>993000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1823500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43267,6 +43267,41 @@
         <v>1823500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1889200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43302,6 +43302,41 @@
         <v>1889200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4277200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43337,6 +43337,41 @@
         <v>4277200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>367100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43372,6 +43372,41 @@
         <v>367100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2142900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43407,6 +43407,76 @@
         <v>2142900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3965100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1835800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43477,6 +43477,76 @@
         <v>1835800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>310200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2608000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43547,6 +43547,41 @@
         <v>2608000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4434800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43582,6 +43582,41 @@
         <v>4434800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3015000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43617,6 +43617,41 @@
         <v>3015000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1287000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43652,6 +43652,41 @@
         <v>1287000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1434800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,6 +43687,76 @@
         <v>1434800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>309000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>786100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,41 @@
         <v>786100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>172000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43792,6 +43792,41 @@
         <v>172000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>821000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2280"/>
+  <dimension ref="A1:I2281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80192,6 +80192,41 @@
         <v>821000</v>
       </c>
     </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2281" t="n">
+        <v>1332900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2281"/>
+  <dimension ref="A1:I2282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80227,6 +80227,41 @@
         <v>1332900</v>
       </c>
     </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>862500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2282"/>
+  <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80262,6 +80262,41 @@
         <v>862500</v>
       </c>
     </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>96400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2283"/>
+  <dimension ref="A1:I2284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80297,6 +80297,41 @@
         <v>96400</v>
       </c>
     </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2284" t="n">
+        <v>183700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2284"/>
+  <dimension ref="A1:I2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80332,6 +80332,41 @@
         <v>183700</v>
       </c>
     </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>1028000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80367,6 +80367,41 @@
         <v>1028000</v>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>13685100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2286"/>
+  <dimension ref="A1:I2287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80402,6 +80402,41 @@
         <v>13685100</v>
       </c>
     </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2287" t="n">
+        <v>12559300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80437,6 +80437,41 @@
         <v>12559300</v>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>13407500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80472,6 +80472,41 @@
         <v>13407500</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>27162300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80507,6 +80507,41 @@
         <v>27162300</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>21440100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80542,6 +80542,41 @@
         <v>21440100</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>15855400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80577,6 +80577,41 @@
         <v>15855400</v>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>28092700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80612,6 +80612,41 @@
         <v>28092700</v>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>17370100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80647,6 +80647,41 @@
         <v>17370100</v>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>20479300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7073.xlsx
+++ b/data/7073.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80682,6 +80682,41 @@
         <v>20479300</v>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>SEACERA</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>27446600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
